--- a/src/test/resources/test-data/usecase4-data.xlsx
+++ b/src/test/resources/test-data/usecase4-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahmud/Desktop/my-repos/qa-automation-moda-framework/src/test/resources/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2502E-D51A-074E-85CB-B72156C91F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D90DC-0B4A-6540-8B91-2B5134BDCA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="680" windowWidth="34400" windowHeight="26880" xr2:uid="{59B0C751-45AA-2E42-8164-1453298C13BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17300" xr2:uid="{59B0C751-45AA-2E42-8164-1453298C13BA}"/>
   </bookViews>
   <sheets>
     <sheet name="usercase4" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Group</t>
   </si>
@@ -490,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B3EB8D-4BDD-5B40-8E45-34A15F36B5CA}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD9"/>
@@ -529,6 +529,104 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +785,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
